--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="141">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,334 +40,403 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>war</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>falling</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>hell</t>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>facing</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>lower</t>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>risk</t>
   </si>
   <si>
     <t>sick</t>
   </si>
   <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>w</t>
+  </si>
+  <si>
     <t>isolation</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>oil</t>
   </si>
   <si>
     <t>buying</t>
   </si>
   <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>god</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>funny</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
     <t>increased</t>
   </si>
   <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
     <t>employees</t>
   </si>
   <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>shop</t>
+    <t>health</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>stay</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>stay</t>
+    <t>need</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>amp</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>need</t>
+    <t>get</t>
+  </si>
+  <si>
+    <t>consumer</t>
   </si>
   <si>
     <t>grocery</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
 </sst>
 </file>
@@ -725,7 +794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,10 +802,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -794,13 +863,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.918918918918919</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -815,16 +884,16 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -844,13 +913,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9117647058823529</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -862,19 +931,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -886,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -894,13 +963,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8947368421052632</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -915,16 +984,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K5">
-        <v>0.9416666666666667</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -936,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -944,13 +1013,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -965,16 +1034,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K6">
-        <v>0.9302325581395349</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -994,13 +1063,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8620689655172413</v>
+        <v>0.88</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1012,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K7">
-        <v>0.9086161879895561</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L7">
-        <v>348</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>348</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1036,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1044,13 +1113,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8333333333333334</v>
+        <v>0.8527397260273972</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>249</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>249</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1062,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K8">
-        <v>0.9014084507042254</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L8">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1086,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1094,13 +1163,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8253424657534246</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="C9">
-        <v>241</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>241</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1112,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="K9">
-        <v>0.8928571428571429</v>
+        <v>0.9033942558746736</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>346</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>346</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1136,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1144,13 +1213,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.825</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1162,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K10">
-        <v>0.8888888888888888</v>
+        <v>0.8984375</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1186,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1194,13 +1263,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7826086956521739</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1215,16 +1284,16 @@
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K11">
-        <v>0.8828125</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L11">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1236,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1244,49 +1313,49 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7647058823529411</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C12">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12">
+        <v>0.8773584905660378</v>
+      </c>
+      <c r="L12">
+        <v>93</v>
+      </c>
+      <c r="M12">
+        <v>93</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>13</v>
-      </c>
-      <c r="D12">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12">
-        <v>0.8723404255319149</v>
-      </c>
-      <c r="L12">
-        <v>41</v>
-      </c>
-      <c r="M12">
-        <v>41</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1294,13 +1363,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7450980392156863</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1312,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K13">
-        <v>0.8625</v>
+        <v>0.8661971830985915</v>
       </c>
       <c r="L13">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="M13">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1336,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1344,13 +1413,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7364341085271318</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C14">
-        <v>380</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>380</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1362,19 +1431,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K14">
-        <v>0.8620689655172413</v>
+        <v>0.8625</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="M14">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1386,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1394,13 +1463,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7301587301587301</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C15">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1412,19 +1481,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K15">
-        <v>0.8584905660377359</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L15">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1436,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1444,13 +1513,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.711864406779661</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1462,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K16">
-        <v>0.8536585365853658</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L16">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1486,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1494,13 +1563,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6956521739130435</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1512,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K17">
-        <v>0.8253968253968254</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L17">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1536,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1544,13 +1613,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6923076923076923</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1562,19 +1631,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K18">
-        <v>0.8076923076923077</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L18">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1586,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1594,13 +1663,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6774193548387096</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1612,19 +1681,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K19">
-        <v>0.8055555555555556</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1636,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1644,13 +1713,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6666666666666666</v>
+        <v>0.7364341085271318</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>380</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>380</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1662,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K20">
-        <v>0.7878787878787878</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1686,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1694,13 +1763,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6666666666666666</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1712,19 +1781,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K21">
-        <v>0.7846153846153846</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L21">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1736,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1744,13 +1813,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6666666666666666</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1762,19 +1831,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K22">
-        <v>0.7708333333333334</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1786,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1794,13 +1863,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6510067114093959</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C23">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1812,19 +1881,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K23">
-        <v>0.7588235294117647</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L23">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1836,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>82</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1844,13 +1913,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6296296296296297</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1862,19 +1931,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K24">
-        <v>0.7553191489361702</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L24">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1886,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1894,13 +1963,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6216216216216216</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1912,19 +1981,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K25">
-        <v>0.7528089887640449</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L25">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1936,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1944,13 +2013,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6153846153846154</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1962,19 +2031,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K26">
-        <v>0.7489539748953975</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L26">
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="M26">
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1986,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1994,13 +2063,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6086956521739131</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2012,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K27">
-        <v>0.74</v>
+        <v>0.7640449438202247</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2036,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2044,13 +2113,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C28">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2062,31 +2131,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K28">
-        <v>0.7337883959044369</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L28">
-        <v>215</v>
+        <v>43</v>
       </c>
       <c r="M28">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="N28">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2094,13 +2163,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5866666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C29">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2112,19 +2181,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K29">
-        <v>0.7254901960784313</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2136,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2144,13 +2213,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5636363636363636</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C30">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D30">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2162,19 +2231,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K30">
-        <v>0.7</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L30">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2186,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2194,13 +2263,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5600000000000001</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2212,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="H31">
+        <v>9</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K31">
+        <v>0.725</v>
+      </c>
+      <c r="L31">
+        <v>29</v>
+      </c>
+      <c r="M31">
+        <v>29</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>11</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K31">
-        <v>0.696969696969697</v>
-      </c>
-      <c r="L31">
-        <v>23</v>
-      </c>
-      <c r="M31">
-        <v>23</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2244,13 +2313,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5416666666666666</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2262,19 +2331,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="K32">
-        <v>0.6666666666666666</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2286,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2294,13 +2363,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5357142857142857</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2312,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K33">
-        <v>0.5909090909090909</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L33">
         <v>13</v>
@@ -2336,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2344,13 +2413,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.53125</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2362,31 +2431,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="K34">
-        <v>0.5833333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L34">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="N34">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2394,13 +2463,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5161290322580645</v>
+        <v>0.6241610738255033</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2412,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K35">
-        <v>0.5789473684210527</v>
+        <v>0.6903765690376569</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2436,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2444,13 +2513,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2462,19 +2531,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="K36">
-        <v>0.575</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2486,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2494,13 +2563,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4545454545454545</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C37">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2512,19 +2581,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="K37">
-        <v>0.5714285714285714</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2536,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2544,13 +2613,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4111111111111111</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2562,19 +2631,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="K38">
-        <v>0.5714285714285714</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2586,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2594,37 +2663,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3928571428571428</v>
+        <v>0.575</v>
       </c>
       <c r="C39">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="K39">
-        <v>0.5588235294117647</v>
+        <v>0.68</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M39">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2636,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2644,13 +2713,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.375</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="C40">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D40">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2662,19 +2731,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K40">
-        <v>0.546875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L40">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M40">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2686,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2694,13 +2763,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3611111111111111</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C41">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D41">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2712,31 +2781,31 @@
         <v>0</v>
       </c>
       <c r="H41">
+        <v>15</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K41">
+        <v>0.6461538461538462</v>
+      </c>
+      <c r="L41">
+        <v>42</v>
+      </c>
+      <c r="M41">
+        <v>42</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>23</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K41">
-        <v>0.5</v>
-      </c>
-      <c r="L41">
-        <v>39</v>
-      </c>
-      <c r="M41">
-        <v>39</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2744,13 +2813,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.35</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C42">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2765,16 +2834,16 @@
         <v>26</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="K42">
-        <v>0.4888888888888889</v>
+        <v>0.625</v>
       </c>
       <c r="L42">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2786,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2794,13 +2863,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2868632707774799</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C43">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="D43">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2812,19 +2881,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="K43">
-        <v>0.4814814814814815</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2836,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2844,13 +2913,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2549019607843137</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C44">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D44">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2862,19 +2931,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K44">
-        <v>0.4761904761904762</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L44">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2886,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2894,13 +2963,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2542372881355932</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2912,19 +2981,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K45">
-        <v>0.4642857142857143</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M45">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2936,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2944,13 +3013,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1766666666666667</v>
+        <v>0.4155844155844156</v>
       </c>
       <c r="C46">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D46">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2962,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="K46">
-        <v>0.4642857142857143</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2986,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2994,31 +3063,31 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.05821917808219178</v>
+        <v>0.40625</v>
       </c>
       <c r="C47">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E47">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>275</v>
+        <v>19</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K47">
-        <v>0.4516129032258064</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L47">
         <v>14</v>
@@ -3036,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3044,49 +3113,49 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02068965517241379</v>
+        <v>0.4</v>
       </c>
       <c r="C48">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D48">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E48">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>1136</v>
+        <v>48</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K48">
-        <v>0.3448275862068966</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L48">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N48">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3094,37 +3163,37 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.01453488372093023</v>
+        <v>0.4</v>
       </c>
       <c r="C49">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D49">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="E49">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>3051</v>
+        <v>24</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K49">
-        <v>0.3409090909090909</v>
+        <v>0.5616438356164384</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3136,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3144,37 +3213,37 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0136150234741784</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C50">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="D50">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="E50">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.6899999999999999</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>2101</v>
+        <v>154</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K50">
-        <v>0.2786885245901639</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="L50">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M50">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3186,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3194,115 +3263,187 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005388272583201268</v>
+        <v>0.3404825737265416</v>
       </c>
       <c r="C51">
+        <v>127</v>
+      </c>
+      <c r="D51">
+        <v>127</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>246</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K51">
+        <v>0.5483870967741935</v>
+      </c>
+      <c r="L51">
         <v>17</v>
       </c>
-      <c r="D51">
-        <v>63</v>
-      </c>
-      <c r="E51">
-        <v>0.73</v>
-      </c>
-      <c r="F51">
-        <v>0.27</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>3138</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K51">
-        <v>0.1944444444444444</v>
-      </c>
-      <c r="L51">
+      <c r="M51">
+        <v>17</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
         <v>14</v>
       </c>
-      <c r="M51">
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.288135593220339</v>
+      </c>
+      <c r="C52">
+        <v>17</v>
+      </c>
+      <c r="D52">
+        <v>17</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>42</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K52">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="L52">
+        <v>42</v>
+      </c>
+      <c r="M52">
+        <v>42</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.2745098039215687</v>
+      </c>
+      <c r="C53">
         <v>14</v>
       </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="J52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K52">
-        <v>0.1415929203539823</v>
-      </c>
-      <c r="L52">
-        <v>16</v>
-      </c>
-      <c r="M52">
-        <v>16</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="D53">
+        <v>14</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>37</v>
+      </c>
       <c r="J53" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K53">
-        <v>0.1376146788990826</v>
+        <v>0.5</v>
       </c>
       <c r="L53">
         <v>15</v>
       </c>
       <c r="M53">
+        <v>16</v>
+      </c>
+      <c r="N53">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O53">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
         <v>15</v>
       </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>94</v>
-      </c>
     </row>
     <row r="54" spans="1:17">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.19</v>
+      </c>
+      <c r="C54">
+        <v>57</v>
+      </c>
+      <c r="D54">
+        <v>57</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>243</v>
+      </c>
       <c r="J54" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K54">
-        <v>0.1370967741935484</v>
+        <v>0.5</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M54">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3314,21 +3455,45 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>107</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:17">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.1027397260273973</v>
+      </c>
+      <c r="C55">
+        <v>30</v>
+      </c>
+      <c r="D55">
+        <v>31</v>
+      </c>
+      <c r="E55">
+        <v>0.03</v>
+      </c>
+      <c r="F55">
+        <v>0.97</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>262</v>
+      </c>
       <c r="J55" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K55">
-        <v>0.1351351351351351</v>
+        <v>0.5</v>
       </c>
       <c r="L55">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M55">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3340,151 +3505,295 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>160</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:17">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.08898305084745763</v>
+      </c>
+      <c r="C56">
+        <v>21</v>
+      </c>
+      <c r="D56">
+        <v>21</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>215</v>
+      </c>
       <c r="J56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K56">
+        <v>0.4576271186440678</v>
+      </c>
+      <c r="L56">
+        <v>27</v>
+      </c>
+      <c r="M56">
+        <v>27</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.0400516795865633</v>
+      </c>
+      <c r="C57">
+        <v>124</v>
+      </c>
+      <c r="D57">
+        <v>135</v>
+      </c>
+      <c r="E57">
+        <v>0.08</v>
+      </c>
+      <c r="F57">
+        <v>0.92</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>2972</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K57">
+        <v>0.3823529411764706</v>
+      </c>
+      <c r="L57">
+        <v>13</v>
+      </c>
+      <c r="M57">
+        <v>13</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.03620689655172414</v>
+      </c>
+      <c r="C58">
+        <v>42</v>
+      </c>
+      <c r="D58">
+        <v>43</v>
+      </c>
+      <c r="E58">
+        <v>0.02</v>
+      </c>
+      <c r="F58">
+        <v>0.98</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1118</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K58">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="L58">
+        <v>20</v>
+      </c>
+      <c r="M58">
+        <v>20</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.02596789423984891</v>
+      </c>
+      <c r="C59">
+        <v>55</v>
+      </c>
+      <c r="D59">
+        <v>80</v>
+      </c>
+      <c r="E59">
+        <v>0.31</v>
+      </c>
+      <c r="F59">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>2063</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K59">
+        <v>0.26</v>
+      </c>
+      <c r="L59">
+        <v>13</v>
+      </c>
+      <c r="M59">
+        <v>13</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.02333722287047841</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="D60">
+        <v>30</v>
+      </c>
+      <c r="E60">
+        <v>0.33</v>
+      </c>
+      <c r="F60">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>837</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K60">
+        <v>0.2523364485981308</v>
+      </c>
+      <c r="L60">
+        <v>27</v>
+      </c>
+      <c r="M60">
+        <v>29</v>
+      </c>
+      <c r="N60">
+        <v>0.93</v>
+      </c>
+      <c r="O60">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.008980115458627326</v>
+      </c>
+      <c r="C61">
+        <v>28</v>
+      </c>
+      <c r="D61">
         <v>111</v>
       </c>
-      <c r="K56">
-        <v>0.1162790697674419</v>
-      </c>
-      <c r="L56">
-        <v>20</v>
-      </c>
-      <c r="M56">
-        <v>20</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="J57" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K57">
-        <v>0.1118881118881119</v>
-      </c>
-      <c r="L57">
-        <v>16</v>
-      </c>
-      <c r="M57">
-        <v>16</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="J58" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K58">
-        <v>0.1038961038961039</v>
-      </c>
-      <c r="L58">
-        <v>32</v>
-      </c>
-      <c r="M58">
-        <v>32</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="J59" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K59">
-        <v>0.06051873198847262</v>
-      </c>
-      <c r="L59">
-        <v>21</v>
-      </c>
-      <c r="M59">
-        <v>23</v>
-      </c>
-      <c r="N59">
-        <v>0.91</v>
-      </c>
-      <c r="O59">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="J60" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K60">
-        <v>0.0576923076923077</v>
-      </c>
-      <c r="L60">
-        <v>24</v>
-      </c>
-      <c r="M60">
-        <v>24</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="E61">
+        <v>0.75</v>
+      </c>
+      <c r="F61">
+        <v>0.25</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>3090</v>
+      </c>
       <c r="J61" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K61">
-        <v>0.05536332179930796</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="L61">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M61">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3496,47 +3805,47 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>273</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="K62">
-        <v>0.01444723618090452</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="L62">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="M62">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="N62">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>3138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K63">
-        <v>0.0144284128745838</v>
+        <v>0.1238938053097345</v>
       </c>
       <c r="L63">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M63">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3548,33 +3857,371 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>888</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="K64">
-        <v>0.006149479659413435</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L64">
+        <v>15</v>
+      </c>
+      <c r="M64">
+        <v>17</v>
+      </c>
+      <c r="N64">
+        <v>0.88</v>
+      </c>
+      <c r="O64">
+        <v>0.12</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K65">
+        <v>0.1118881118881119</v>
+      </c>
+      <c r="L65">
+        <v>16</v>
+      </c>
+      <c r="M65">
+        <v>16</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K66">
+        <v>0.1103896103896104</v>
+      </c>
+      <c r="L66">
+        <v>34</v>
+      </c>
+      <c r="M66">
+        <v>34</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K67">
+        <v>0.1046511627906977</v>
+      </c>
+      <c r="L67">
+        <v>18</v>
+      </c>
+      <c r="M67">
+        <v>18</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K68">
+        <v>0.08680555555555555</v>
+      </c>
+      <c r="L68">
+        <v>25</v>
+      </c>
+      <c r="M68">
+        <v>26</v>
+      </c>
+      <c r="N68">
+        <v>0.96</v>
+      </c>
+      <c r="O68">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K69">
+        <v>0.08024691358024691</v>
+      </c>
+      <c r="L69">
         <v>13</v>
       </c>
-      <c r="M64">
-        <v>42</v>
-      </c>
-      <c r="N64">
+      <c r="M69">
+        <v>14</v>
+      </c>
+      <c r="N69">
+        <v>0.93</v>
+      </c>
+      <c r="O69">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K70">
+        <v>0.0625</v>
+      </c>
+      <c r="L70">
+        <v>26</v>
+      </c>
+      <c r="M70">
+        <v>26</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K71">
+        <v>0.05444126074498568</v>
+      </c>
+      <c r="L71">
+        <v>19</v>
+      </c>
+      <c r="M71">
+        <v>19</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K72">
+        <v>0.04248366013071896</v>
+      </c>
+      <c r="L72">
+        <v>13</v>
+      </c>
+      <c r="M72">
+        <v>13</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K73">
+        <v>0.02803738317757009</v>
+      </c>
+      <c r="L73">
+        <v>18</v>
+      </c>
+      <c r="M73">
+        <v>26</v>
+      </c>
+      <c r="N73">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O73">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K74">
+        <v>0.02663706992230854</v>
+      </c>
+      <c r="L74">
+        <v>24</v>
+      </c>
+      <c r="M74">
+        <v>24</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K75">
+        <v>0.02615820989599748</v>
+      </c>
+      <c r="L75">
+        <v>83</v>
+      </c>
+      <c r="M75">
+        <v>111</v>
+      </c>
+      <c r="N75">
+        <v>0.75</v>
+      </c>
+      <c r="O75">
+        <v>0.25</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K76">
+        <v>0.01795735129068463</v>
+      </c>
+      <c r="L76">
+        <v>16</v>
+      </c>
+      <c r="M76">
+        <v>19</v>
+      </c>
+      <c r="N76">
+        <v>0.84</v>
+      </c>
+      <c r="O76">
+        <v>0.16</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K77">
+        <v>0.01197318007662835</v>
+      </c>
+      <c r="L77">
+        <v>25</v>
+      </c>
+      <c r="M77">
+        <v>80</v>
+      </c>
+      <c r="N77">
         <v>0.31</v>
       </c>
-      <c r="O64">
+      <c r="O77">
         <v>0.6899999999999999</v>
       </c>
-      <c r="P64" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q64">
-        <v>2101</v>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>2063</v>
       </c>
     </row>
   </sheetData>
